--- a/daftar_berita/detik_index.xlsx
+++ b/daftar_berita/detik_index.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wagub Lampung Apresiasi Aksi Sosial Peserta Nomadic 4x4 Adventure Awaits</t>
+          <t>Marak Keracunan MBG, Mendagri Rapat Bareng Seluruh Kepala Daerah Besok</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14 menit yang lalu</t>
+          <t>Minggu, 28 Sep 2025 16:41 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,23 +483,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131721/wagub-lampung-apresiasi-aksi-sosial-peserta-nomadic-4x4-adventure-awaits</t>
+          <t>https://news.detik.com/berita/d-8134517/marak-keracunan-mbg-mendagri-rapat-bareng-seluruh-kepala-daerah-besok</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rumah di Kompleks Kodamar Kelapa Gading Kebakaran, Api Masih Menyala</t>
+          <t>Pemerintah Tutup Sementara Dapur MBG yang Picu Keracunan Massal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15 menit yang lalu</t>
+          <t>2 menit yang lalu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,23 +513,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131720/rumah-di-kompleks-kodamar-kelapa-gading-kebakaran-api-masih-menyala</t>
+          <t>https://news.detik.com/berita/d-8134513/pemerintah-tutup-sementara-dapur-mbg-yang-picu-keracunan-massal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kandang-Rumah Potong Hewan di Depok Terancam Ditutup Buntut Cemari 2 Setu</t>
+          <t>Panggil Kepala BGN, Prabowo Minta Dapur MBG Dipasangi CCTV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17 menit yang lalu</t>
+          <t>9 menit yang lalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,23 +543,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131718/kandang-rumah-potong-hewan-di-depok-terancam-ditutup-buntut-cemari-2-setu</t>
+          <t>https://news.detik.com/berita/d-8134508/panggil-kepala-bgn-prabowo-minta-dapur-mbg-dipasangi-cctv</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pramono Cerita Atasi Polemik Kampung Bayam: Alhamdulillah Tak Ada Lagi Protes</t>
+          <t>Gus Ipul &amp; Budisatrio Resmikan Kick Off Bulan Bakti Karang Taruna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20 menit yang lalu</t>
+          <t>24 menit yang lalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131714/pramono-cerita-atasi-polemik-kampung-bayam-alhamdulillah-tak-ada-lagi-protes</t>
+          <t>https://news.detik.com/berita/d-8134492/gus-ipul-budisatrio-resmikan-kick-off-bulan-bakti-karang-taruna</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +584,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arahan Dukung Prabowo-Gibran 2 Periode Disorot, Jokowi Buka Suara</t>
+          <t>Hasil Lab Ungkap Bakteri Penyebab 1.333 Siswa Bandung Barat Keracunan MBG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20 menit yang lalu</t>
+          <t>43 menit yang lalu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,23 +599,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131713/arahan-dukung-prabowo-gibran-2-periode-disorot-jokowi-buka-suara</t>
+          <t>https://news.detik.com/berita/d-8134474/hasil-lab-ungkap-bakteri-penyebab-1-333-siswa-bandung-barat-keracunan-mbg</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kelakar Pramono di Unpad, Tak Rayakan Pakai Kaos Oblong Jika Persija Juara</t>
+          <t>Imbauan Pengibaran Bendera Setengah Tiang 30 September 2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +629,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131706/kelakar-pramono-di-unpad-tak-rayakan-pakai-kaos-oblong-jika-persija-juara</t>
+          <t>https://news.detik.com/berita/d-8134417/imbauan-pengibaran-bendera-setengah-tiang-30-september-2025</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +640,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gus Ipul Ajak Kitabisa Berdayakan Orang Tua Siswa Sekolah Rakyat</t>
+          <t>Kebakaran di Tamansari Jakbar Merembet ke Rumah Lain</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +655,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131704/gus-ipul-ajak-kitabisa-berdayakan-orang-tua-siswa-sekolah-rakyat</t>
+          <t>https://news.detik.com/berita/d-8134395/kebakaran-di-tamansari-jakbar-merembet-ke-rumah-lain</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -650,12 +666,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Food Tray MBG Wajib SNI Tahun Ini, Ompreng Tak Standar Dilarang Edar</t>
+          <t>Polisi Ungkap Alasan 'Bang Jago' Aniaya Kurir di Bekasi Serahkan Diri</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,27 +681,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131691/food-tray-mbg-wajib-sni-tahun-ini-ompreng-tak-standar-dilarang-edar</t>
+          <t>https://news.detik.com/berita/d-8134393/polisi-ungkap-alasan-bang-jago-aniaya-kurir-di-bekasi-serahkan-diri</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Imparsial Minta Evaluasi Aturan Senpi TNI Buntut Prajurit Ngamuk di Gowa</t>
+          <t>Pacaran Malam-malam di Kampus, Mahasiswa di Mamuju Balas Todong Saat Ditegur</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -695,7 +707,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131687/imparsial-minta-evaluasi-aturan-senpi-tni-buntut-prajurit-ngamuk-di-gowa</t>
+          <t>https://news.detik.com/berita/d-8134347/pacaran-malam-malam-di-kampus-mahasiswa-di-mamuju-balas-todong-saat-ditegur</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -706,12 +718,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jokowi Cerita soal Perannya Jadi Dewan Penasihat Bloomberg New Economy</t>
+          <t>Khofifah Optimistis Pemasangan Bronjong Mampu Cegah Banjir &amp; Jaga Irigasi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>42 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -721,7 +733,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131659/jokowi-cerita-soal-perannya-jadi-dewan-penasihat-bloomberg-new-economy</t>
+          <t>https://news.detik.com/berita/d-8134346/khofifah-optimistis-pemasangan-bronjong-mampu-cegah-banjir-jaga-irigasi</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -732,12 +744,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wamensesneg Sebut Tim Reformasi Polri Ad Hoc, Masa Kerja 6 Bulan</t>
+          <t>Cara Ikut Flash Sale KAI Sore Ini: Tiket Hanya Rp 80 Ribu dan Diskon Lainnya</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -747,7 +759,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131656/wamensesneg-sebut-tim-reformasi-polri-ad-hoc-masa-kerja-6-bulan</t>
+          <t>https://news.detik.com/berita/d-8134330/cara-ikut-flash-sale-kai-sore-ini-tiket-hanya-rp-80-ribu-dan-diskon-lainnya</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -758,12 +770,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wamensos Sambut Usulan Pahlawan Nasional dari Ranah Minang</t>
+          <t>Bamsoet Sebut Kekhasan Kuliner Daerah Mampu Jadi Pilar Identitas Bangsa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -773,7 +785,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131652/wamensos-sambut-usulan-pahlawan-nasional-dari-ranah-minang</t>
+          <t>https://news.detik.com/berita/d-8134329/bamsoet-sebut-kekhasan-kuliner-daerah-mampu-jadi-pilar-identitas-bangsa</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -784,12 +796,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jatim Sportiv Festival Raih Rekor MURI, Ini Pesan Gubernur Khofifah</t>
+          <t>Bocah 10 Tahun Tewas Terseret Arus Drainase di Bogor Saat Mandi Hujan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -799,7 +811,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131642/jatim-sportiv-festival-raih-rekor-muri-ini-pesan-gubernur-khofifah</t>
+          <t>https://news.detik.com/berita/d-8134328/bocah-10-tahun-tewas-terseret-arus-drainase-di-bogor-saat-mandi-hujan</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -810,12 +822,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Diduga Cemari 2 Setu di Depok, Kandang dan Rumah Potong Hewan Disegel KLH</t>
+          <t>'Bang Jago' Aniaya Kurir di Bekasi Dipicu Salah Paham Saat COD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>53 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,7 +837,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131640/diduga-cemari-2-setu-di-depok-kandang-dan-rumah-potong-hewan-disegel-klh</t>
+          <t>https://news.detik.com/berita/d-8134313/bang-jago-aniaya-kurir-di-bekasi-dipicu-salah-paham-saat-cod</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -836,12 +848,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Diusir Warga, Eks Dosen UIN Malang yang Viral Minta Waktu hingga Rumah Laku</t>
+          <t>Legislator Rajiv Apresiasi Inovasi Polisi Olah Eceng Gondok Jadi Pupuk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>56 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -851,7 +863,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131635/diusir-warga-eks-dosen-uin-malang-yang-viral-minta-waktu-hingga-rumah-laku</t>
+          <t>https://news.detik.com/berita/d-8134272/legislator-rajiv-apresiasi-inovasi-polisi-olah-eceng-gondok-jadi-pupuk</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -862,12 +874,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pikap Double Cabin Sule Kena Tilang Dishub karena KIR, Ini Aturannya</t>
+          <t>Dipanggil Prabowo, Kepala BGN Jelaskan Penyebab Rentetan Keracunan MBG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -877,23 +889,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131622/pikap-double-cabin-sule-kena-tilang-dishub-karena-kir-ini-aturannya</t>
+          <t>https://news.detik.com/berita/d-8134268/dipanggil-prabowo-kepala-bgn-jelaskan-penyebab-rentetan-keracunan-mbg</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kawasan Transmigrasi Akan Terintegrasi dengan Industri, Warga Bisa Dapat Saham</t>
+          <t>Mardiono Terpilih Aklamasi, PPP Sebut Caketum Harus Penuhi Syarat AD/ART</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -903,7 +919,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131605/kawasan-transmigrasi-akan-terintegrasi-dengan-industri-warga-bisa-dapat-saham</t>
+          <t>https://news.detik.com/berita/d-8134266/mardiono-terpilih-aklamasi-ppp-sebut-caketum-harus-penuhi-syarat-ad-art</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -914,12 +930,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14 Ribu Rumah di Bogor Tak Layak Huni, Pemkab Target Perbaikan 3 Tahun</t>
+          <t>Usai Jadi Ketua Harian PSI, Ahmad Ali Temui Jokowi di Solo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,7 +945,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131591/14-ribu-rumah-di-bogor-tak-layak-huni-pemkab-target-perbaikan-3-tahun</t>
+          <t>https://news.detik.com/berita/d-8134261/usai-jadi-ketua-harian-psi-ahmad-ali-temui-jokowi-di-solo</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -940,12 +956,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wamensesneg Yakin Prabowo Sudah Tahu Kasus Ribuan Siswa Keracunan MBG</t>
+          <t>Wamentrans Sebut Transmigrasi Berorientasi pada Peningkatan Kesejahteraan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -955,27 +971,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131588/wamensesneg-yakin-prabowo-sudah-tahu-kasus-ribuan-siswa-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8134258/wamentrans-sebut-transmigrasi-berorientasi-pada-peningkatan-kesejahteraan</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4 Siswa SMP di Jonggol Bogor Diduga Keracunan Menu Makan Bergizi Gratis</t>
+          <t>KPK Ungkap Eks Dirjen Binapenta Kemnaker Minta Dibeliin Mobil dari Agen TKA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -985,7 +997,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131586/4-siswa-smp-di-jonggol-bogor-diduga-keracunan-menu-makan-bergizi-gratis</t>
+          <t>https://news.detik.com/berita/d-8134257/kpk-ungkap-eks-dirjen-binapenta-kemnaker-minta-dibeliin-mobil-dari-agen-tka</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1001,7 +1013,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1027,7 +1039,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1053,7 +1065,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1079,7 +1091,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1105,7 +1117,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1131,7 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1157,7 +1169,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1183,7 +1195,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1209,7 +1221,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1261,7 +1273,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1287,7 +1299,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1313,7 +1325,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1339,7 +1351,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1365,7 +1377,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1391,7 +1403,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1417,7 +1429,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1443,7 +1455,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1469,7 +1481,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1495,7 +1507,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1521,7 +1533,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1547,7 +1559,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1573,7 +1585,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1599,7 +1611,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1625,7 +1637,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1651,7 +1663,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1677,7 +1689,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1703,7 +1715,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1729,7 +1741,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1755,7 +1767,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1781,7 +1793,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1807,7 +1819,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1833,7 +1845,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1859,7 +1871,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1885,7 +1897,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1911,7 +1923,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1937,7 +1949,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1963,7 +1975,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1989,7 +2001,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2015,7 +2027,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2041,7 +2053,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2067,7 +2079,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2093,7 +2105,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2119,7 +2131,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2145,7 +2157,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2171,7 +2183,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,7 +2209,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2223,7 +2235,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2249,7 +2261,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2275,7 +2287,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2301,7 +2313,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2327,7 +2339,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2353,7 +2365,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2379,7 +2391,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2405,7 +2417,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2431,7 +2443,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2457,7 +2469,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2483,7 +2495,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2509,7 +2521,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2535,7 +2547,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2561,7 +2573,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2587,7 +2599,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2613,7 +2625,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2639,7 +2651,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2665,7 +2677,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2691,7 +2703,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2717,7 +2729,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2743,7 +2755,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2769,7 +2781,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2795,7 +2807,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2821,7 +2833,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2847,7 +2859,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2873,7 +2885,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2899,7 +2911,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2925,7 +2937,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2951,7 +2963,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2977,7 +2989,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3029,7 +3041,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3055,7 +3067,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3081,7 +3093,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3107,7 +3119,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3133,7 +3145,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3159,7 +3171,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3185,7 +3197,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3211,7 +3223,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3237,7 +3249,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3263,7 +3275,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3289,7 +3301,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3315,7 +3327,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3341,7 +3353,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3367,7 +3379,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3393,7 +3405,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3419,7 +3431,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3445,7 +3457,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3471,7 +3483,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3497,7 +3509,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3523,7 +3535,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3549,7 +3561,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3575,7 +3587,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3601,7 +3613,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3627,7 +3639,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3653,7 +3665,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3679,7 +3691,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3705,7 +3717,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3731,7 +3743,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3757,7 +3769,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3783,7 +3795,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3809,7 +3821,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3835,7 +3847,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3861,7 +3873,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3887,7 +3899,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3913,7 +3925,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3939,7 +3951,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3965,7 +3977,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3991,7 +4003,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4017,7 +4029,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4043,7 +4055,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4069,7 +4081,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4095,7 +4107,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4121,7 +4133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">

--- a/daftar_berita/detik_index.xlsx
+++ b/daftar_berita/detik_index.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Marak Keracunan MBG, Mendagri Rapat Bareng Seluruh Kepala Daerah Besok</t>
+          <t>Lalin di Terminal Kampung Rambutan Macet Imbas Proyek Galian</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minggu, 28 Sep 2025 16:41 WIB</t>
+          <t>6 menit yang lalu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,27 +483,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134517/marak-keracunan-mbg-mendagri-rapat-bareng-seluruh-kepala-daerah-besok</t>
+          <t>https://news.detik.com/berita/d-8135129/lalin-di-terminal-kampung-rambutan-macet-imbas-proyek-galian</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pemerintah Tutup Sementara Dapur MBG yang Picu Keracunan Massal</t>
+          <t>Bareskrim Tangkap Kurir Narkoba di Jakut, 10 Bungkus Sabu Disita</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 menit yang lalu</t>
+          <t>16 menit yang lalu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,27 +509,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134513/pemerintah-tutup-sementara-dapur-mbg-yang-picu-keracunan-massal</t>
+          <t>https://news.detik.com/berita/d-8135121/bareskrim-tangkap-kurir-narkoba-di-jakut-10-bungkus-sabu-disita</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Panggil Kepala BGN, Prabowo Minta Dapur MBG Dipasangi CCTV</t>
+          <t>Cerita Jaksa di Bantaeng Alami Intimidasi Saat Tangani Perkara Besar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9 menit yang lalu</t>
+          <t>43 menit yang lalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,27 +535,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134508/panggil-kepala-bgn-prabowo-minta-dapur-mbg-dipasangi-cctv</t>
+          <t>https://news.detik.com/berita/d-8135073/cerita-jaksa-di-bantaeng-alami-intimidasi-saat-tangani-perkara-besar</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gus Ipul &amp; Budisatrio Resmikan Kick Off Bulan Bakti Karang Taruna</t>
+          <t>Kementrans Akan Perluas Program Pengiriman Transmigran RI Ke Jepang</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24 menit yang lalu</t>
+          <t>48 menit yang lalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134492/gus-ipul-budisatrio-resmikan-kick-off-bulan-bakti-karang-taruna</t>
+          <t>https://news.detik.com/berita/d-8135087/kementrans-akan-perluas-program-pengiriman-transmigran-ri-ke-jepang</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -584,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hasil Lab Ungkap Bakteri Penyebab 1.333 Siswa Bandung Barat Keracunan MBG</t>
+          <t>Legislator Setuju Koki Makan Bergizi Gratis Harus Punya Pengalaman</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43 menit yang lalu</t>
+          <t>50 menit yang lalu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,27 +587,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134474/hasil-lab-ungkap-bakteri-penyebab-1-333-siswa-bandung-barat-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135085/legislator-setuju-koki-makan-bergizi-gratis-harus-punya-pengalaman</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Imbauan Pengibaran Bendera Setengah Tiang 30 September 2025</t>
+          <t>Upaya Kejaksaan Edukasi Restorative Justice ke Warga Jeneponto Sulsel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>58 menit yang lalu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -629,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134417/imbauan-pengibaran-bendera-setengah-tiang-30-september-2025</t>
+          <t>https://news.detik.com/berita/d-8134826/upaya-kejaksaan-edukasi-restorative-justice-ke-warga-jeneponto-sulsel</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -640,7 +624,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kebakaran di Tamansari Jakbar Merembet ke Rumah Lain</t>
+          <t>Dapur-Chef Dievaluasi Buntut Menu MBG Bikin Siswa Keracunan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -655,18 +639,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134395/kebakaran-di-tamansari-jakbar-merembet-ke-rumah-lain</t>
+          <t>https://news.detik.com/berita/d-8135062/dapur-chef-dievaluasi-buntut-menu-mbg-bikin-siswa-keracunan</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polisi Ungkap Alasan 'Bang Jago' Aniaya Kurir di Bekasi Serahkan Diri</t>
+          <t>Juru Masak MBG Dievaluasi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -681,18 +669,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134393/polisi-ungkap-alasan-bang-jago-aniaya-kurir-di-bekasi-serahkan-diri</t>
+          <t>https://news.detik.com/berita/d-8134900/juru-masak-mbg-dievaluasi</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pacaran Malam-malam di Kampus, Mahasiswa di Mamuju Balas Todong Saat Ditegur</t>
+          <t>Lalin di Sejumlah Ruas Tol Arah Jakarta Padat, Ini Titiknya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,7 +699,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134347/pacaran-malam-malam-di-kampus-mahasiswa-di-mamuju-balas-todong-saat-ditegur</t>
+          <t>https://news.detik.com/berita/d-8135054/lalin-di-sejumlah-ruas-tol-arah-jakarta-padat-ini-titiknya</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -718,7 +710,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Khofifah Optimistis Pemasangan Bronjong Mampu Cegah Banjir &amp; Jaga Irigasi</t>
+          <t>Sejumlah Gerbang Tol Dalam Kota Dibuka Parsial Pagi Ini, Lalin Padat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -733,7 +725,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134346/khofifah-optimistis-pemasangan-bronjong-mampu-cegah-banjir-jaga-irigasi</t>
+          <t>https://news.detik.com/berita/d-8135051/sejumlah-gerbang-tol-dalam-kota-dibuka-parsial-pagi-ini-lalin-padat</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -744,7 +736,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cara Ikut Flash Sale KAI Sore Ini: Tiket Hanya Rp 80 Ribu dan Diskon Lainnya</t>
+          <t>Update Terbaru Kasus Anggota TNI Pukul Staf Zaskia Adya Mecca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -759,7 +751,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134330/cara-ikut-flash-sale-kai-sore-ini-tiket-hanya-rp-80-ribu-dan-diskon-lainnya</t>
+          <t>https://news.detik.com/berita/d-8135048/update-terbaru-kasus-anggota-tni-pukul-staf-zaskia-adya-mecca</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -770,12 +762,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bamsoet Sebut Kekhasan Kuliner Daerah Mampu Jadi Pilar Identitas Bangsa</t>
+          <t>JPPI Nilai Sertifikat Higienis dan CCTV Belum Bisa Selesaikan Persoalan MBG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -785,18 +777,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134329/bamsoet-sebut-kekhasan-kuliner-daerah-mampu-jadi-pilar-identitas-bangsa</t>
+          <t>https://news.detik.com/berita/d-8135046/jppi-nilai-sertifikat-higienis-dan-cctv-belum-bisa-selesaikan-persoalan-mbg</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bocah 10 Tahun Tewas Terseret Arus Drainase di Bogor Saat Mandi Hujan</t>
+          <t>Terungkap Bakteri 'Biang Kerok' Keracunan MBG di Bandung Barat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -811,18 +807,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134328/bocah-10-tahun-tewas-terseret-arus-drainase-di-bogor-saat-mandi-hujan</t>
+          <t>https://news.detik.com/berita/d-8135037/terungkap-bakteri-biang-kerok-keracunan-mbg-di-bandung-barat</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'Bang Jago' Aniaya Kurir di Bekasi Dipicu Salah Paham Saat COD</t>
+          <t>Hari Jantung Sedunia 2025: Tema, Tujuan, dan Cara Merayakan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134313/bang-jago-aniaya-kurir-di-bekasi-dipicu-salah-paham-saat-cod</t>
+          <t>https://news.detik.com/berita/d-8134113/hari-jantung-sedunia-2025-tema-tujuan-dan-cara-merayakan</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -848,7 +848,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Legislator Rajiv Apresiasi Inovasi Polisi Olah Eceng Gondok Jadi Pupuk</t>
+          <t>Anggota DPR Minta Penanganan Keracunan MBG Tak Cuma CCTV-Sertifikat Higienis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -863,18 +863,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134272/legislator-rajiv-apresiasi-inovasi-polisi-olah-eceng-gondok-jadi-pupuk</t>
+          <t>https://news.detik.com/berita/d-8135035/anggota-dpr-minta-penanganan-keracunan-mbg-tak-cuma-cctv-sertifikat-higienis</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dipanggil Prabowo, Kepala BGN Jelaskan Penyebab Rentetan Keracunan MBG</t>
+          <t>4 Instruksi Prabowo Saat Panggil Kepala BGN Usai Marak Keracunan MBG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -889,7 +893,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134268/dipanggil-prabowo-kepala-bgn-jelaskan-penyebab-rentetan-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135031/4-instruksi-prabowo-saat-panggil-kepala-bgn-usai-marak-keracunan-mbg</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -904,12 +908,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mardiono Terpilih Aklamasi, PPP Sebut Caketum Harus Penuhi Syarat AD/ART</t>
+          <t>29 September Hari Sarjana Nasional, Ini Sejarah dan Cara Merayakannya</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>3 jam yang lalu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -919,7 +923,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134266/mardiono-terpilih-aklamasi-ppp-sebut-caketum-harus-penuhi-syarat-ad-art</t>
+          <t>https://news.detik.com/berita/d-8134101/29-september-hari-sarjana-nasional-ini-sejarah-dan-cara-merayakannya</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -930,12 +934,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Usai Jadi Ketua Harian PSI, Ahmad Ali Temui Jokowi di Solo</t>
+          <t>CISDI Dorong Pemerintah Susun Perpres Perbaikan Menyeluruh MBG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>3 jam yang lalu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -945,23 +949,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134261/usai-jadi-ketua-harian-psi-ahmad-ali-temui-jokowi-di-solo</t>
+          <t>https://news.detik.com/berita/d-8135020/cisdi-dorong-pemerintah-susun-perpres-perbaikan-menyeluruh-mbg</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wamentrans Sebut Transmigrasi Berorientasi pada Peningkatan Kesejahteraan</t>
+          <t>400 Rumah Hangus Usai Kebakaran Landa Permukiman di Tamansari Jakbar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>4 jam yang lalu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -971,7 +979,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134258/wamentrans-sebut-transmigrasi-berorientasi-pada-peningkatan-kesejahteraan</t>
+          <t>https://news.detik.com/berita/d-8135009/400-rumah-hangus-usai-kebakaran-landa-permukiman-di-tamansari-jakbar</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -982,12 +990,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KPK Ungkap Eks Dirjen Binapenta Kemnaker Minta Dibeliin Mobil dari Agen TKA</t>
+          <t>Cak Imin Sebut MBG Jadi Solusi Agar Anak Tak Banyak Konsumsi MSG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>4 jam yang lalu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -997,13 +1005,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134257/kpk-ungkap-eks-dirjen-binapenta-kemnaker-minta-dibeliin-mobil-dari-agen-tka</t>
+          <t>https://news.detik.com/berita/d-8135005/cak-imin-sebut-mbg-jadi-solusi-agar-anak-tak-banyak-konsumsi-msg</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1013,7 +1025,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1039,7 +1051,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1065,7 +1077,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1091,7 +1103,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1117,7 +1129,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,7 +1155,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1169,7 +1181,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1195,7 +1207,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1221,7 +1233,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1247,7 +1259,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1273,7 +1285,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1299,7 +1311,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1325,7 +1337,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1351,7 +1363,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1377,7 +1389,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1403,7 +1415,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1429,7 +1441,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1455,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1481,7 +1493,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1507,7 +1519,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1533,7 +1545,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1559,7 +1571,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,7 +1597,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1611,7 +1623,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1637,7 +1649,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1663,7 +1675,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1689,7 +1701,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1715,7 +1727,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1741,7 +1753,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1767,7 +1779,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1793,7 +1805,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1819,7 +1831,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1845,7 +1857,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1871,7 +1883,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1897,7 +1909,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1923,7 +1935,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1949,7 +1961,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1975,7 +1987,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2001,7 +2013,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2027,7 +2039,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2053,7 +2065,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2079,7 +2091,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2105,7 +2117,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2131,7 +2143,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2157,7 +2169,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2183,7 +2195,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2209,7 +2221,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2235,7 +2247,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2261,7 +2273,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2287,7 +2299,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2313,7 +2325,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2339,7 +2351,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2365,7 +2377,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2391,7 +2403,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2417,7 +2429,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2443,7 +2455,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2469,7 +2481,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2495,7 +2507,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2521,7 +2533,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2547,7 +2559,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2573,7 +2585,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2599,7 +2611,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2625,7 +2637,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2651,7 +2663,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2677,7 +2689,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2703,7 +2715,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2729,7 +2741,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2755,7 +2767,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2807,7 +2819,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2833,7 +2845,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2859,7 +2871,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2885,7 +2897,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2911,7 +2923,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2937,7 +2949,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2963,7 +2975,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2989,7 +3001,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3015,7 +3027,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3041,7 +3053,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3067,7 +3079,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3093,7 +3105,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3119,7 +3131,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3145,7 +3157,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3171,7 +3183,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3197,7 +3209,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3223,7 +3235,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3249,7 +3261,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3275,7 +3287,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3301,7 +3313,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3327,7 +3339,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3353,7 +3365,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3379,7 +3391,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3405,7 +3417,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3431,7 +3443,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3457,7 +3469,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3483,7 +3495,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3509,7 +3521,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3535,7 +3547,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3561,7 +3573,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3587,7 +3599,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3613,7 +3625,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3639,7 +3651,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3665,7 +3677,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3691,7 +3703,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3717,7 +3729,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3743,7 +3755,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3769,7 +3781,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3795,7 +3807,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3821,7 +3833,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3847,7 +3859,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3873,7 +3885,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3899,7 +3911,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3925,7 +3937,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3951,7 +3963,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3977,7 +3989,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4003,7 +4015,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4029,7 +4041,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4055,7 +4067,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4081,7 +4093,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4107,7 +4119,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4133,7 +4145,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">

--- a/daftar_berita/detik_index.xlsx
+++ b/daftar_berita/detik_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lalin di Terminal Kampung Rambutan Macet Imbas Proyek Galian</t>
+          <t>Viral Copet Beraksi Depan Pramono, Pelaku Balikin HP Korban Via Kurir</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6 menit yang lalu</t>
+          <t>1 menit yang lalu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135129/lalin-di-terminal-kampung-rambutan-macet-imbas-proyek-galian</t>
+          <t>https://news.detik.com/berita/d-8135615/viral-copet-beraksi-depan-pramono-pelaku-balikin-hp-korban-via-kurir</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bareskrim Tangkap Kurir Narkoba di Jakut, 10 Bungkus Sabu Disita</t>
+          <t>KPK Panggil Billy Beras Jadi Saksi Kasus Korupsi Proyek Jalur KA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16 menit yang lalu</t>
+          <t>7 menit yang lalu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135121/bareskrim-tangkap-kurir-narkoba-di-jakut-10-bungkus-sabu-disita</t>
+          <t>https://news.detik.com/berita/d-8135602/kpk-panggil-billy-beras-jadi-saksi-kasus-korupsi-proyek-jalur-ka</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cerita Jaksa di Bantaeng Alami Intimidasi Saat Tangani Perkara Besar</t>
+          <t>Andre Rosiade Minta Buggy Car untuk Jamaah Umrah Lansia di Bandara Ditambah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43 menit yang lalu</t>
+          <t>12 menit yang lalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135073/cerita-jaksa-di-bantaeng-alami-intimidasi-saat-tangani-perkara-besar</t>
+          <t>https://news.detik.com/berita/d-8135598/andre-rosiade-minta-buggy-car-untuk-jamaah-umrah-lansia-di-bandara-ditambah</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kementrans Akan Perluas Program Pengiriman Transmigran RI Ke Jepang</t>
+          <t>Dikunjungi Abu Bakar Baasyir di Solo, Jokowi Cium Tangan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>48 menit yang lalu</t>
+          <t>13 menit yang lalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135087/kementrans-akan-perluas-program-pengiriman-transmigran-ri-ke-jepang</t>
+          <t>https://news.detik.com/berita/d-8135597/dikunjungi-abu-bakar-baasyir-di-solo-jokowi-cium-tangan</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Legislator Setuju Koki Makan Bergizi Gratis Harus Punya Pengalaman</t>
+          <t>Forum Orang Tua Siswa Minta MBG di Jabar Disetop Sementara</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>50 menit yang lalu</t>
+          <t>14 menit yang lalu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,23 +587,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135085/legislator-setuju-koki-makan-bergizi-gratis-harus-punya-pengalaman</t>
+          <t>https://news.detik.com/berita/d-8135596/forum-orang-tua-siswa-minta-mbg-di-jabar-disetop-sementara</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>mbg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Upaya Kejaksaan Edukasi Restorative Justice ke Warga Jeneponto Sulsel</t>
+          <t>Biro Pers Kembalikan ID Liputan Istana Wartawan yang Diambil, Jamin Tak Terulang</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>58 menit yang lalu</t>
+          <t>16 menit yang lalu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +617,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134826/upaya-kejaksaan-edukasi-restorative-justice-ke-warga-jeneponto-sulsel</t>
+          <t>https://news.detik.com/berita/d-8135593/biro-pers-kembalikan-id-liputan-istana-wartawan-yang-diambil-jamin-tak-terulang</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +628,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dapur-Chef Dievaluasi Buntut Menu MBG Bikin Siswa Keracunan</t>
+          <t>Detik-detik ABG Bawa Pajero hingga Seruduk 2 Rumah Warga di Tangsel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>17 menit yang lalu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,27 +643,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135062/dapur-chef-dievaluasi-buntut-menu-mbg-bikin-siswa-keracunan</t>
+          <t>https://news.detik.com/berita/d-8135592/detik-detik-abg-bawa-pajero-hingga-seruduk-2-rumah-warga-di-tangsel</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Juru Masak MBG Dievaluasi</t>
+          <t>Belasan Siswa MTS di KBB Kembali Dirawat Usai Gejala Keracunan MBG Kambuh Lagi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>29 menit yang lalu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134900/juru-masak-mbg-dievaluasi</t>
+          <t>https://news.detik.com/berita/d-8135570/belasan-siswa-mts-di-kbb-kembali-dirawat-usai-gejala-keracunan-mbg-kambuh-lagi</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -684,12 +684,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lalin di Sejumlah Ruas Tol Arah Jakarta Padat, Ini Titiknya</t>
+          <t>Tren Foto dengan Akta di Balik Tingginya Angka Perceraian di Ponorogo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>30 menit yang lalu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135054/lalin-di-sejumlah-ruas-tol-arah-jakarta-padat-ini-titiknya</t>
+          <t>https://news.detik.com/berita/d-8135566/tren-foto-dengan-akta-di-balik-tingginya-angka-perceraian-di-ponorogo</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -710,12 +710,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sejumlah Gerbang Tol Dalam Kota Dibuka Parsial Pagi Ini, Lalin Padat</t>
+          <t>Tak Lekang oleh Zaman, Ini Perjalanan 53 Tahun Abang None Jakarta</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>39 menit yang lalu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135051/sejumlah-gerbang-tol-dalam-kota-dibuka-parsial-pagi-ini-lalin-padat</t>
+          <t>https://news.detik.com/berita/d-8135543/tak-lekang-oleh-zaman-ini-perjalanan-53-tahun-abang-none-jakarta</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -736,12 +736,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Update Terbaru Kasus Anggota TNI Pukul Staf Zaskia Adya Mecca</t>
+          <t>Kombes Budi Hermanto Diangkat Jadi Kabid Humas Polda Metro Jaya</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>43 menit yang lalu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135048/update-terbaru-kasus-anggota-tni-pukul-staf-zaskia-adya-mecca</t>
+          <t>https://news.detik.com/berita/d-8135532/kombes-budi-hermanto-diangkat-jadi-kabid-humas-polda-metro-jaya</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -762,12 +762,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JPPI Nilai Sertifikat Higienis dan CCTV Belum Bisa Selesaikan Persoalan MBG</t>
+          <t>Prabowo Sentil Kader Gerindra Cari-cari Proyek ke Menteri: Saya Bilang Nggak!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>50 menit yang lalu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135046/jppi-nilai-sertifikat-higienis-dan-cctv-belum-bisa-selesaikan-persoalan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135503/prabowo-sentil-kader-gerindra-cari-cari-proyek-ke-menteri-saya-bilang-nggak</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -785,19 +785,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mbg</t>
+          <t>prabowo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terungkap Bakteri 'Biang Kerok' Keracunan MBG di Bandung Barat</t>
+          <t>Pramono dan Menhub Sepakati Stasiun Karet dan Stasiun BNI City Digabung</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>53 menit yang lalu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -807,27 +807,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135037/terungkap-bakteri-biang-kerok-keracunan-mbg-di-bandung-barat</t>
+          <t>https://news.detik.com/berita/d-8135501/pramono-dan-menhub-sepakati-stasiun-karet-dan-stasiun-bni-city-digabung</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hari Jantung Sedunia 2025: Tema, Tujuan, dan Cara Merayakan</t>
+          <t>KPK Panggil Eks Dirut PT DKB Terkait Kasus Kapal Angkut Tank di Kemhan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>59 menit yang lalu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -837,7 +833,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134113/hari-jantung-sedunia-2025-tema-tujuan-dan-cara-merayakan</t>
+          <t>https://news.detik.com/berita/d-8135491/kpk-panggil-eks-dirut-pt-dkb-terkait-kasus-kapal-angkut-tank-di-kemhan</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -848,12 +844,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Anggota DPR Minta Penanganan Keracunan MBG Tak Cuma CCTV-Sertifikat Higienis</t>
+          <t>Penampilan Grup Kerontjong Tugu Pikat Penonton Final Abang None Jakarta</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -863,27 +859,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135035/anggota-dpr-minta-penanganan-keracunan-mbg-tak-cuma-cctv-sertifikat-higienis</t>
+          <t>https://news.detik.com/berita/d-8135454/penampilan-grup-kerontjong-tugu-pikat-penonton-final-abang-none-jakarta</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4 Instruksi Prabowo Saat Panggil Kepala BGN Usai Marak Keracunan MBG</t>
+          <t>Bukan Prediksi, Ini Penjelasan Prekursor Gempa Bumi oleh BMKG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -893,27 +885,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135031/4-instruksi-prabowo-saat-panggil-kepala-bgn-usai-marak-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135488/bukan-prediksi-ini-penjelasan-prekursor-gempa-bumi-oleh-bmkg</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>29 September Hari Sarjana Nasional, Ini Sejarah dan Cara Merayakannya</t>
+          <t>Pemprov Sumut Minta Maaf soal Viral Pelat BL Jadi BK: Semua Bebas Melintas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -923,7 +911,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134101/29-september-hari-sarjana-nasional-ini-sejarah-dan-cara-merayakannya</t>
+          <t>https://news.detik.com/berita/d-8135472/pemprov-sumut-minta-maaf-soal-viral-pelat-bl-jadi-bk-semua-bebas-melintas</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -934,12 +922,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CISDI Dorong Pemerintah Susun Perpres Perbaikan Menyeluruh MBG</t>
+          <t>2 Remaja Mau Tawuran di Jakpus Ditangkap Patroli Polisi, Celurit Disita</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -949,27 +937,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135020/cisdi-dorong-pemerintah-susun-perpres-perbaikan-menyeluruh-mbg</t>
+          <t>https://news.detik.com/berita/d-8135464/2-remaja-mau-tawuran-di-jakpus-ditangkap-patroli-polisi-celurit-disita</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>400 Rumah Hangus Usai Kebakaran Landa Permukiman di Tamansari Jakbar</t>
+          <t>Prabowo Ungkit Sempat Tak Didukung PKS: Tapi Saya Nggak Dendam Sama Anies</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -979,23 +963,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135009/400-rumah-hangus-usai-kebakaran-landa-permukiman-di-tamansari-jakbar</t>
+          <t>https://news.detik.com/berita/d-8135459/prabowo-ungkit-sempat-tak-didukung-pks-tapi-saya-nggak-dendam-sama-anies</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>prabowo</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cak Imin Sebut MBG Jadi Solusi Agar Anak Tak Banyak Konsumsi MSG</t>
+          <t>Tolak MBG, Ortu Siswa SD di Solo Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4 jam yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1005,7 +993,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135005/cak-imin-sebut-mbg-jadi-solusi-agar-anak-tak-banyak-konsumsi-msg</t>
+          <t>https://news.detik.com/berita/d-8135453/tolak-mbg-ortu-siswa-sd-di-solo-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -2788,7 +2776,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Edu</t>
+          <t>Bangun Indonesia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2803,7 +2791,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/indeks</t>
+          <t>https://news.detik.com/bangun-indonesia</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -2814,7 +2802,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Edu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2829,7 +2817,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/indeks</t>
+          <t>https://www.detik.com/edu/indeks</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -2840,7 +2828,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hot</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2855,7 +2843,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://hot.detik.com/indeks</t>
+          <t>https://finance.detik.com/indeks</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -2866,7 +2854,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Inet</t>
+          <t>Hot</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2881,7 +2869,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://inet.detik.com/indeks</t>
+          <t>https://hot.detik.com/indeks</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -2892,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>Inet</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2895,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://sport.detik.com/indeks</t>
+          <t>https://inet.detik.com/indeks</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -2918,7 +2906,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2933,7 +2921,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://oto.detik.com/indeks</t>
+          <t>https://sport.detik.com/indeks</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -2944,7 +2932,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Oto</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2959,7 +2947,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://travel.detik.com/indeks</t>
+          <t>https://oto.detik.com/indeks</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -2970,7 +2958,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sepakbola</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2985,7 +2973,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://sport.detik.com/sepakbola/indeks</t>
+          <t>https://travel.detik.com/indeks</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -2996,7 +2984,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Sepakbola</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3011,7 +2999,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://food.detik.com/indeks</t>
+          <t>https://sport.detik.com/sepakbola/indeks</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -3022,7 +3010,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3037,7 +3025,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://health.detik.com/indeks</t>
+          <t>https://food.detik.com/indeks</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -3048,7 +3036,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Wolipop</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3063,7 +3051,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://wolipop.detik.com/indeks</t>
+          <t>https://health.detik.com/indeks</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -3074,7 +3062,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jatim</t>
+          <t>Wolipop</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3089,7 +3077,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/indeks</t>
+          <t>https://wolipop.detik.com/indeks</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -3100,7 +3088,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jateng</t>
+          <t>Jatim</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3115,7 +3103,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/indeks</t>
+          <t>https://www.detik.com/jatim/indeks</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -3126,7 +3114,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jabar</t>
+          <t>Jateng</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3141,7 +3129,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/indeks</t>
+          <t>https://www.detik.com/jateng/indeks</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -3152,7 +3140,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sulsel</t>
+          <t>Jabar</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3167,7 +3155,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/indeks</t>
+          <t>https://www.detik.com/jabar/indeks</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -3178,7 +3166,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sumut</t>
+          <t>Sulsel</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3193,7 +3181,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/indeks</t>
+          <t>https://www.detik.com/sulsel/indeks</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -3204,7 +3192,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bali</t>
+          <t>Sumut</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3219,7 +3207,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.detik.com/bali/indeks</t>
+          <t>https://www.detik.com/sumut/indeks</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -3230,7 +3218,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hikmah</t>
+          <t>Bali</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3245,7 +3233,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.detik.com/hikmah/indeks</t>
+          <t>https://www.detik.com/bali/indeks</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -3256,7 +3244,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sumbagsel</t>
+          <t>Hikmah</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3271,7 +3259,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumbagsel/indeks</t>
+          <t>https://www.detik.com/hikmah/indeks</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -3282,7 +3270,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Properti</t>
+          <t>Sumbagsel</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3297,7 +3285,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.detik.com/properti/indeks</t>
+          <t>https://www.detik.com/sumbagsel/indeks</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -3308,7 +3296,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jogja</t>
+          <t>Properti</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3323,7 +3311,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jogja/indeks</t>
+          <t>https://www.detik.com/properti/indeks</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -3334,7 +3322,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Pop</t>
+          <t>Jogja</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3349,7 +3337,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.detik.com/pop/indeks</t>
+          <t>https://www.detik.com/jogja/indeks</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -3360,7 +3348,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kalimantan</t>
+          <t>Pop</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3375,7 +3363,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.detik.com/kalimantan/indeks</t>
+          <t>https://www.detik.com/pop/indeks</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -3386,7 +3374,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>detikNews</t>
+          <t>Kalimantan</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3401,7 +3389,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://news.detik.com</t>
+          <t>https://www.detik.com/kalimantan/indeks</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -3412,7 +3400,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>detikEdukasi</t>
+          <t>detikNews</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3427,7 +3415,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu</t>
+          <t>https://news.detik.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -3438,7 +3426,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>detikFinance</t>
+          <t>detikEdukasi</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3453,7 +3441,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://finance.detik.com</t>
+          <t>https://www.detik.com/edu</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -3464,7 +3452,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>detikInet</t>
+          <t>detikFinance</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3479,7 +3467,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://inet.detik.com</t>
+          <t>https://finance.detik.com</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -3490,7 +3478,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>detikHot</t>
+          <t>detikInet</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3505,7 +3493,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://hot.detik.com</t>
+          <t>https://inet.detik.com</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -3516,7 +3504,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>detikSport</t>
+          <t>detikHot</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3531,7 +3519,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://sport.detik.com</t>
+          <t>https://hot.detik.com</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -3542,7 +3530,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>detikOto</t>
+          <t>detikSport</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3557,7 +3545,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://oto.detik.com</t>
+          <t>https://sport.detik.com</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -3568,7 +3556,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>detikProperti</t>
+          <t>detikOto</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3583,7 +3571,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.detik.com/properti</t>
+          <t>https://oto.detik.com</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -3594,7 +3582,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>detikTravel</t>
+          <t>detikProperti</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3609,7 +3597,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://travel.detik.com</t>
+          <t>https://www.detik.com/properti</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -3620,7 +3608,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>detikFood</t>
+          <t>detikTravel</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3635,7 +3623,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://food.detik.com</t>
+          <t>https://travel.detik.com</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -3646,7 +3634,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>detikHealth</t>
+          <t>detikFood</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3661,7 +3649,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://health.detik.com</t>
+          <t>https://food.detik.com</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -3672,7 +3660,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>detikHikmah</t>
+          <t>detikHealth</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3687,7 +3675,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.detik.com/hikmah</t>
+          <t>https://health.detik.com</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -3698,7 +3686,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>detikPop</t>
+          <t>detikHikmah</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3713,7 +3701,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.detik.com/pop</t>
+          <t>https://www.detik.com/hikmah</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -3724,7 +3712,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>berbuatbaik.id</t>
+          <t>detikPop</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3739,7 +3727,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://berbuatbaik.id/</t>
+          <t>https://www.detik.com/pop</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -3750,7 +3738,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pasang Mata</t>
+          <t>berbuatbaik.id</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3765,7 +3753,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://pasangmata.detik.com</t>
+          <t>https://berbuatbaik.id/</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -3776,7 +3764,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Adsmart</t>
+          <t>Pasang Mata</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3791,7 +3779,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://adsmart.detik.com</t>
+          <t>https://pasangmata.detik.com</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -3802,7 +3790,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Bingkai.id</t>
+          <t>Adsmart</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3817,7 +3805,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://bingkai.id/</t>
+          <t>https://adsmart.detik.com</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -3828,7 +3816,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ziswafctarsa.id</t>
+          <t>Bingkai.id</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3843,7 +3831,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.ziswafctarsa.id/</t>
+          <t>https://bingkai.id/</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -3854,7 +3842,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Redaksi</t>
+          <t>Ziswafctarsa.id</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3869,7 +3857,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.detik.com/redaksi</t>
+          <t>https://www.ziswafctarsa.id/</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -3880,7 +3868,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pedoman Media Siber</t>
+          <t>Redaksi</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3895,7 +3883,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.detik.com/pedoman-media</t>
+          <t>https://www.detik.com/redaksi</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -3906,7 +3894,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Karir</t>
+          <t>Pedoman Media Siber</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3921,7 +3909,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://karir.detik.com/</t>
+          <t>https://www.detik.com/pedoman-media</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -3932,7 +3920,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Kotak Pos</t>
+          <t>Karir</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3947,7 +3935,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.detik.com/kotak-pos</t>
+          <t>https://karir.detik.com/</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -3958,7 +3946,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Media Partner</t>
+          <t>Kotak Pos</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3973,7 +3961,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.detik.com/media-partner</t>
+          <t>https://www.detik.com/kotak-pos</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -3984,7 +3972,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Info Iklan</t>
+          <t>Media Partner</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3999,7 +3987,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.detik.com/info-iklan</t>
+          <t>https://www.detik.com/media-partner</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -4010,7 +3998,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Privacy Policy</t>
+          <t>Info Iklan</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4025,7 +4013,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.detik.com/privacy-policy</t>
+          <t>https://www.detik.com/info-iklan</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -4036,7 +4024,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Disclaimer</t>
+          <t>Privacy Policy</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4051,7 +4039,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.detik.com/disclaimer</t>
+          <t>https://www.detik.com/privacy-policy</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -4062,7 +4050,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Insertlive</t>
+          <t>Disclaimer</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4077,7 +4065,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.insertlive.com/</t>
+          <t>https://www.detik.com/disclaimer</t>
         </is>
       </c>
       <c r="E139" t="b">
@@ -4088,7 +4076,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Beautynesia</t>
+          <t>Insertlive</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4103,7 +4091,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://beautynesia.id</t>
+          <t>https://www.insertlive.com/</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -4114,7 +4102,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Female Daily</t>
+          <t>Beautynesia</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4129,7 +4117,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://femaledaily.com</t>
+          <t>https://beautynesia.id</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -4140,28 +4128,54 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>Female Daily</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://femaledaily.com</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>CXO Media</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>https://www.cxomedia.id</t>
         </is>
       </c>
-      <c r="E142" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daftar_berita/detik_index.xlsx
+++ b/daftar_berita/detik_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Viral Copet Beraksi Depan Pramono, Pelaku Balikin HP Korban Via Kurir</t>
+          <t>Razman Divonis 1,5 Tahun Bui di Kasus Pencemaran Nama Baik Hotman Paris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1 menit yang lalu</t>
+          <t>Selasa, 30 Sep 2025 13:48 WIB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135615/viral-copet-beraksi-depan-pramono-pelaku-balikin-hp-korban-via-kurir</t>
+          <t>https://news.detik.com/berita/d-8137508/razman-divonis-1-5-tahun-bui-di-kasus-pencemaran-nama-baik-hotman-paris</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KPK Panggil Billy Beras Jadi Saksi Kasus Korupsi Proyek Jalur KA</t>
+          <t>Buruh Minta RUU Ketenagakerjaan Atur Larangan Calo Kerja-Penahanan Ijazah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7 menit yang lalu</t>
+          <t>Selasa, 30 Sep 2025 13:48 WIB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135602/kpk-panggil-billy-beras-jadi-saksi-kasus-korupsi-proyek-jalur-ka</t>
+          <t>https://news.detik.com/berita/d-8137504/buruh-minta-ruu-ketenagakerjaan-atur-larangan-calo-kerja-penahanan-ijazah</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Andre Rosiade Minta Buggy Car untuk Jamaah Umrah Lansia di Bandara Ditambah</t>
+          <t>JNE Berangkatkan 1.643 Karyawan Laksanakan Ibadah Umrah</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12 menit yang lalu</t>
+          <t>3 menit yang lalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135598/andre-rosiade-minta-buggy-car-untuk-jamaah-umrah-lansia-di-bandara-ditambah</t>
+          <t>https://news.detik.com/berita/d-8137501/jne-berangkatkan-1-643-karyawan-laksanakan-ibadah-umrah</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dikunjungi Abu Bakar Baasyir di Solo, Jokowi Cium Tangan</t>
+          <t>Area Ponpes Ambruk di Sidoarjo Disterilkan untuk Evakuasi Korban</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13 menit yang lalu</t>
+          <t>6 menit yang lalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135597/dikunjungi-abu-bakar-baasyir-di-solo-jokowi-cium-tangan</t>
+          <t>https://news.detik.com/berita/d-8137497/area-ponpes-ambruk-di-sidoarjo-disterilkan-untuk-evakuasi-korban</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Forum Orang Tua Siswa Minta MBG di Jabar Disetop Sementara</t>
+          <t>Jaksa Sebut Terima Surat Berobat Saat Razman Sudah Berangkat ke Luar Negeri</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -587,27 +587,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135596/forum-orang-tua-siswa-minta-mbg-di-jabar-disetop-sementara</t>
+          <t>https://news.detik.com/berita/d-8137469/jaksa-sebut-terima-surat-berobat-saat-razman-sudah-berangkat-ke-luar-negeri</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biro Pers Kembalikan ID Liputan Istana Wartawan yang Diambil, Jamin Tak Terulang</t>
+          <t>Komdigi Resmikan Kampung Internet, Wagub Sumut Sebut Selaras dengan PHTC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16 menit yang lalu</t>
+          <t>22 menit yang lalu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -617,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135593/biro-pers-kembalikan-id-liputan-istana-wartawan-yang-diambil-jamin-tak-terulang</t>
+          <t>https://news.detik.com/berita/d-8137448/komdigi-resmikan-kampung-internet-wagub-sumut-sebut-selaras-dengan-phtc</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -628,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Detik-detik ABG Bawa Pajero hingga Seruduk 2 Rumah Warga di Tangsel</t>
+          <t>Polda Metro Musnahkan 1,14 Ton Sabu hingga Ganja Senilai Rp 1,13 T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17 menit yang lalu</t>
+          <t>27 menit yang lalu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135592/detik-detik-abg-bawa-pajero-hingga-seruduk-2-rumah-warga-di-tangsel</t>
+          <t>https://news.detik.com/berita/d-8137446/polda-metro-musnahkan-1-14-ton-sabu-hingga-ganja-senilai-rp-1-13-t</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -654,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Belasan Siswa MTS di KBB Kembali Dirawat Usai Gejala Keracunan MBG Kambuh Lagi</t>
+          <t>Kakorlantas Minta Jajaran Tingkatkan Program Polantas Menyapa, Layani-Bantu Masyarakat</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29 menit yang lalu</t>
+          <t>27 menit yang lalu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -669,27 +665,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135570/belasan-siswa-mts-di-kbb-kembali-dirawat-usai-gejala-keracunan-mbg-kambuh-lagi</t>
+          <t>https://news.detik.com/berita/d-8137443/kakorlantas-minta-jajaran-tingkatkan-program-polantas-menyapa-layani-bantu-masyarakat</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tren Foto dengan Akta di Balik Tingginya Angka Perceraian di Ponorogo</t>
+          <t>Festival Kue Bulan 2025 Tanggal Berapa? Ini Jadwal dan Serba-serbinya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30 menit yang lalu</t>
+          <t>28 menit yang lalu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -699,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135566/tren-foto-dengan-akta-di-balik-tingginya-angka-perceraian-di-ponorogo</t>
+          <t>https://news.detik.com/berita/d-8137370/festival-kue-bulan-2025-tanggal-berapa-ini-jadwal-dan-serba-serbinya</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -710,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tak Lekang oleh Zaman, Ini Perjalanan 53 Tahun Abang None Jakarta</t>
+          <t>27 Siswa SD di Palangka Raya Mual-Pusing Usai Santap Burger MBG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39 menit yang lalu</t>
+          <t>34 menit yang lalu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -725,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135543/tak-lekang-oleh-zaman-ini-perjalanan-53-tahun-abang-none-jakarta</t>
+          <t>https://news.detik.com/berita/d-8137416/27-siswa-sd-di-palangka-raya-mual-pusing-usai-santap-burger-mbg</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -736,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kombes Budi Hermanto Diangkat Jadi Kabid Humas Polda Metro Jaya</t>
+          <t>Kakorlantas Tingkatkan Kehadiran Polantas di Jalan, Humanis Layani Masyarakat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>43 menit yang lalu</t>
+          <t>37 menit yang lalu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -751,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135532/kombes-budi-hermanto-diangkat-jadi-kabid-humas-polda-metro-jaya</t>
+          <t>https://news.detik.com/berita/d-8137408/kakorlantas-tingkatkan-kehadiran-polantas-di-jalan-humanis-layani-masyarakat</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -762,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prabowo Sentil Kader Gerindra Cari-cari Proyek ke Menteri: Saya Bilang Nggak!</t>
+          <t>35+ Ucapan Hari Batik Nasional 2025, Bahasa Indonesia dan Inggris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>50 menit yang lalu</t>
+          <t>38 menit yang lalu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -777,27 +769,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135503/prabowo-sentil-kader-gerindra-cari-cari-proyek-ke-menteri-saya-bilang-nggak</t>
+          <t>https://news.detik.com/berita/d-8137165/35-ucapan-hari-batik-nasional-2025-bahasa-indonesia-dan-inggris</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pramono dan Menhub Sepakati Stasiun Karet dan Stasiun BNI City Digabung</t>
+          <t>Perwakilan Buruh Diterima DPR Bahas RUU Ketenagakerjaan, Aksi Demo Batal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53 menit yang lalu</t>
+          <t>43 menit yang lalu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -807,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135501/pramono-dan-menhub-sepakati-stasiun-karet-dan-stasiun-bni-city-digabung</t>
+          <t>https://news.detik.com/berita/d-8137397/perwakilan-buruh-diterima-dpr-bahas-ruu-ketenagakerjaan-aksi-demo-batal</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -818,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KPK Panggil Eks Dirut PT DKB Terkait Kasus Kapal Angkut Tank di Kemhan</t>
+          <t>RI-Jepang Siapkan Beasiswa S2 buat Mahasiswa Program Transmigrasi Patriot</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59 menit yang lalu</t>
+          <t>44 menit yang lalu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -833,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135491/kpk-panggil-eks-dirut-pt-dkb-terkait-kasus-kapal-angkut-tank-di-kemhan</t>
+          <t>https://news.detik.com/berita/d-8137391/ri-jepang-siapkan-beasiswa-s2-buat-mahasiswa-program-transmigrasi-patriot</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -844,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Penampilan Grup Kerontjong Tugu Pikat Penonton Final Abang None Jakarta</t>
+          <t>Polri dan AFP Sepakati Rencana Kerja Sama Tangani Penyelundupan Manusia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>48 menit yang lalu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -859,7 +847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135454/penampilan-grup-kerontjong-tugu-pikat-penonton-final-abang-none-jakarta</t>
+          <t>https://news.detik.com/berita/d-8137385/polri-dan-afp-sepakati-rencana-kerja-sama-tangani-penyelundupan-manusia</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -870,12 +858,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bukan Prediksi, Ini Penjelasan Prekursor Gempa Bumi oleh BMKG</t>
+          <t>Apakah Besok 1 Oktober 2025 Libur? Cek Lagi SKB 3 Menteri</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>56 menit yang lalu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -885,7 +873,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135488/bukan-prediksi-ini-penjelasan-prekursor-gempa-bumi-oleh-bmkg</t>
+          <t>https://news.detik.com/berita/d-8137373/apakah-besok-1-oktober-2025-libur-cek-lagi-skb-3-menteri</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -896,7 +884,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pemprov Sumut Minta Maaf soal Viral Pelat BL Jadi BK: Semua Bebas Melintas</t>
+          <t>Hakim Baca Vonis Tanpa Kehadiran Razman, Pengacara Walk Out</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -911,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135472/pemprov-sumut-minta-maaf-soal-viral-pelat-bl-jadi-bk-semua-bebas-melintas</t>
+          <t>https://news.detik.com/berita/d-8137368/hakim-baca-vonis-tanpa-kehadiran-razman-pengacara-walk-out</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -922,7 +910,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 Remaja Mau Tawuran di Jakpus Ditangkap Patroli Polisi, Celurit Disita</t>
+          <t>Pemprov Cek Merak Viral di Jaktim: Milik Bamsoet, Termasuk Dilindungi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -937,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135464/2-remaja-mau-tawuran-di-jakpus-ditangkap-patroli-polisi-celurit-disita</t>
+          <t>https://news.detik.com/berita/d-8137348/pemprov-cek-merak-viral-di-jaktim-milik-bamsoet-termasuk-dilindungi</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -948,7 +936,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prabowo Ungkit Sempat Tak Didukung PKS: Tapi Saya Nggak Dendam Sama Anies</t>
+          <t>Razman ke Luar Negeri Tanpa Izin, Hakim Tetap Bacakan Vonis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -963,22 +951,18 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135459/prabowo-ungkit-sempat-tak-didukung-pks-tapi-saya-nggak-dendam-sama-anies</t>
+          <t>https://news.detik.com/berita/d-8137344/razman-ke-luar-negeri-tanpa-izin-hakim-tetap-bacakan-vonis</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>prabowo</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tolak MBG, Ortu Siswa SD di Solo Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
+          <t>Prakiraan Cuaca 1 Oktober 2025 Saat Upacara Hari Kesaktian Pancasila</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -993,17 +977,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135453/tolak-mbg-ortu-siswa-sd-di-solo-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
+          <t>https://news.detik.com/berita/d-8137369/prakiraan-cuaca-1-oktober-2025-saat-upacara-hari-kesaktian-pancasila</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>mbg</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1013,7 +993,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1039,7 +1019,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1065,7 +1045,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1091,7 +1071,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1117,7 +1097,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,7 +1123,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1169,7 +1149,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1195,7 +1175,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1221,7 +1201,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1247,7 +1227,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1273,7 +1253,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1299,7 +1279,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1325,7 +1305,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1351,7 +1331,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1377,7 +1357,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1403,7 +1383,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1429,7 +1409,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1455,7 +1435,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1481,7 +1461,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1507,7 +1487,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1533,7 +1513,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1559,7 +1539,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1585,7 +1565,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1611,7 +1591,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1637,7 +1617,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1663,7 +1643,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1689,7 +1669,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1715,7 +1695,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1741,7 +1721,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1767,7 +1747,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1793,7 +1773,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1819,7 +1799,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1845,7 +1825,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1871,7 +1851,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1897,7 +1877,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1923,7 +1903,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1949,7 +1929,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1975,7 +1955,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2001,7 +1981,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2027,7 +2007,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2053,7 +2033,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2079,7 +2059,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2105,7 +2085,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2131,7 +2111,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2157,7 +2137,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2183,7 +2163,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2209,7 +2189,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2235,7 +2215,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2261,7 +2241,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2287,7 +2267,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2313,7 +2293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2339,7 +2319,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2365,7 +2345,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2391,7 +2371,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2417,7 +2397,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2443,7 +2423,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2469,7 +2449,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2495,7 +2475,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2521,7 +2501,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2547,7 +2527,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2573,7 +2553,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2599,7 +2579,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2625,7 +2605,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2651,7 +2631,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2677,7 +2657,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2703,7 +2683,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2729,7 +2709,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2755,7 +2735,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2781,7 +2761,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2807,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2833,7 +2813,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2859,7 +2839,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2885,7 +2865,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2911,7 +2891,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2937,7 +2917,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2963,7 +2943,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2989,7 +2969,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3015,7 +2995,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3041,7 +3021,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3067,7 +3047,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3093,7 +3073,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3119,7 +3099,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3145,7 +3125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3171,7 +3151,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3197,7 +3177,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3223,7 +3203,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3249,7 +3229,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3275,7 +3255,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3301,7 +3281,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3327,7 +3307,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3353,7 +3333,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3379,7 +3359,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3405,7 +3385,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3431,7 +3411,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3457,7 +3437,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3483,7 +3463,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3509,7 +3489,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3535,7 +3515,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3561,7 +3541,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3587,7 +3567,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3613,7 +3593,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3639,7 +3619,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3665,7 +3645,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3691,7 +3671,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3717,7 +3697,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3743,7 +3723,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3769,7 +3749,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3795,7 +3775,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3821,7 +3801,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3847,7 +3827,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3873,7 +3853,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3899,7 +3879,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3925,7 +3905,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3951,7 +3931,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3977,7 +3957,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4003,7 +3983,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4029,7 +4009,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4055,7 +4035,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4081,7 +4061,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4107,7 +4087,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4133,7 +4113,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4159,7 +4139,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4176,6 +4156,526 @@
         <v>0</v>
       </c>
       <c r="F143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Pemkab Pandeglang Tegur Guru yang Karaoke dan Joget saat Jam Pelajaran</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136763/pemkab-pandeglang-tegur-guru-yang-karaoke-dan-joget-saat-jam-pelajaran</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Viral Pemotor Jadi Korban Hipnotis Rugi Rp 15 Juta di Bogor, Polisi Selidiki</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136754/viral-pemotor-jadi-korban-hipnotis-rugi-rp-15-juta-di-bogor-polisi-selidiki</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Periksa Agen TKA, KPK Dalami Rentang Waktu Pemerasan di Kemnaker</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136751/periksa-agen-tka-kpk-dalami-rentang-waktu-pemerasan-di-kemnaker</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Masukan Koalisi Masyarakat Sipil Saat Diskusi dengan Kapolri</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136749/masukan-koalisi-masyarakat-sipil-saat-diskusi-dengan-kapolri</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1 Orang Dilaporkan Tewas Tertimpa Reruntuhan Musala Pondok Al Khoziny Sidoarjo</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136748/1-orang-dilaporkan-tewas-tertimpa-reruntuhan-musala-pondok-al-khoziny-sidoarjo</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>F-PDIP Terima Aduan Warga Sumut soal Konflik Lahan, Soroti Amdal Perusahaan</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136743/f-pdip-terima-aduan-warga-sumut-soal-konflik-lahan-soroti-amdal-perusahaan</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Luncurkan UHC Prioritas, Bobby Nasution Minta Tak Ada Faskes Tolak Pasien</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136741/luncurkan-uhc-prioritas-bobby-nasution-minta-tak-ada-faskes-tolak-pasien</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MONDIACULT 2025, Menbud Tegaskan Peran RI bagi Arah Kebijakan Budaya Global</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>14 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136734/mondiacult-2025-menbud-tegaskan-peran-ri-bagi-arah-kebijakan-budaya-global</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Pagar 2 Rumah di Tangsel Diterabas Pajero gegara ABG Salah Injak Gas</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136732/pagar-2-rumah-di-tangsel-diterabas-pajero-gegara-abg-salah-injak-gas</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Baleg DPR Batalkan Kewenangan BPIP Bisa Nilai Indeks Pancasila ke Lembaga</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136727/baleg-dpr-batalkan-kewenangan-bpip-bisa-nilai-indeks-pancasila-ke-lembaga</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Putin Panggil 135 Ribu Pemuda Rusia untuk Wajib Militer</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136722/putin-panggil-135-ribu-pemuda-rusia-untuk-wajib-militer</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Usai Diguyur Hujan, 2 Ruas Jalan di Kembangan Jakbar Banjir Malam Ini</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136710/usai-diguyur-hujan-2-ruas-jalan-di-kembangan-jakbar-banjir-malam-ini</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Musala Ponpes di Sidoarjo Ambruk Diduga karena Fondasi Tak Kuat</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136703/musala-ponpes-di-sidoarjo-ambruk-diduga-karena-fondasi-tak-kuat</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Menteri Ara Serah Terima Kunci Rumah Subsidi, Termasuk untuk Keluarga Affan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136697/menteri-ara-serah-terima-kunci-rumah-subsidi-termasuk-untuk-keluarga-affan</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Halaman RSUD Kabupaten Bekasi Sempat Banjir Usai Hujan Deras, Tinggi Air 15 Cm</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136685/halaman-rsud-kabupaten-bekasi-sempat-banjir-usai-hujan-deras-tinggi-air-15-cm</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DWP Kemensos Ajak Swasta Dukung Peringatan Hari Disabilitas Internasional</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136681/dwp-kemensos-ajak-swasta-dukung-peringatan-hari-disabilitas-internasional</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Pengasuh Ponpes Sidoarjo Ungkap Musala Ambruk Sedang dalam Proses Pengecoran</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136677/pengasuh-ponpes-sidoarjo-ungkap-musala-ambruk-sedang-dalam-proses-pengecoran</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Di Depan Kapolri, Amnesty International-KontraS Minta Bebaskan Aktivis</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136649/di-depan-kapolri-amnesty-international-kontras-minta-bebaskan-aktivis</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Naikkan IPM, Pemkot Semarang Usulkan Raperda Penyelenggaraan Pendidikan</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136648/naikkan-ipm-pemkot-semarang-usulkan-raperda-penyelenggaraan-pendidikan</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hujan-hujanan, Prabowo Sapa Langsung Warga Pemilik Rumah Subsidi di Cileungsi</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>16 jam yang lalu</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8136640/hujan-hujanan-prabowo-sapa-langsung-warga-pemilik-rumah-subsidi-di-cileungsi</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/daftar_berita/detik_index.xlsx
+++ b/daftar_berita/detik_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Razman Divonis 1,5 Tahun Bui di Kasus Pencemaran Nama Baik Hotman Paris</t>
+          <t>Upacara Kesaktian Pancasila: Muzani Bacakan Teks Pancasila, Puan Baca Ikrar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Selasa, 30 Sep 2025 13:48 WIB</t>
+          <t>1 menit yang lalu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137508/razman-divonis-1-5-tahun-bui-di-kasus-pencemaran-nama-baik-hotman-paris</t>
+          <t>https://news.detik.com/berita/d-8138859/upacara-kesaktian-pancasila-muzani-bacakan-teks-pancasila-puan-baca-ikrar</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Buruh Minta RUU Ketenagakerjaan Atur Larangan Calo Kerja-Penahanan Ijazah</t>
+          <t>Heboh Bobby Minta BL Jadi BK, Legislator: Harusnya Persuasif Agar Tak Gaduh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Selasa, 30 Sep 2025 13:48 WIB</t>
+          <t>6 menit yang lalu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137504/buruh-minta-ruu-ketenagakerjaan-atur-larangan-calo-kerja-penahanan-ijazah</t>
+          <t>https://news.detik.com/berita/d-8138857/heboh-bobby-minta-bl-jadi-bk-legislator-harusnya-persuasif-agar-tak-gaduh</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JNE Berangkatkan 1.643 Karyawan Laksanakan Ibadah Umrah</t>
+          <t>Lestari Moerdijat Tekankan Pentingnya Keseimbangan Antara Ilmu dan Iman</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3 menit yang lalu</t>
+          <t>26 menit yang lalu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137501/jne-berangkatkan-1-643-karyawan-laksanakan-ibadah-umrah</t>
+          <t>https://news.detik.com/berita/d-8138841/lestari-moerdijat-tekankan-pentingnya-keseimbangan-antara-ilmu-dan-iman</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -546,12 +546,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Area Ponpes Ambruk di Sidoarjo Disterilkan untuk Evakuasi Korban</t>
+          <t>Dampak Gempa M 6,5 di Sumenep: 22 Rumah Rusak, 3 Orang Luka</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6 menit yang lalu</t>
+          <t>27 menit yang lalu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137497/area-ponpes-ambruk-di-sidoarjo-disterilkan-untuk-evakuasi-korban</t>
+          <t>https://news.detik.com/berita/d-8138840/dampak-gempa-m-6-5-di-sumenep-22-rumah-rusak-3-orang-luka</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -572,12 +572,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaksa Sebut Terima Surat Berobat Saat Razman Sudah Berangkat ke Luar Negeri</t>
+          <t>Lika-liku Mercy BJ Habibie: Dicicil RK, Disita KPK, Balik ke Anaknya</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14 menit yang lalu</t>
+          <t>28 menit yang lalu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137469/jaksa-sebut-terima-surat-berobat-saat-razman-sudah-berangkat-ke-luar-negeri</t>
+          <t>https://news.detik.com/berita/d-8138837/lika-liku-mercy-bj-habibie-dicicil-rk-disita-kpk-balik-ke-anaknya</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -598,12 +598,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Komdigi Resmikan Kampung Internet, Wagub Sumut Sebut Selaras dengan PHTC</t>
+          <t>Prabowo Perdana Pimpin Upacara Hari Kesaktian Pancasila</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22 menit yang lalu</t>
+          <t>41 menit yang lalu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137448/komdigi-resmikan-kampung-internet-wagub-sumut-sebut-selaras-dengan-phtc</t>
+          <t>https://news.detik.com/berita/d-8138833/prabowo-perdana-pimpin-upacara-hari-kesaktian-pancasila</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -624,12 +624,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polda Metro Musnahkan 1,14 Ton Sabu hingga Ganja Senilai Rp 1,13 T</t>
+          <t>4 Dinding Rumah Warga di Sumenep Roboh Usai Diguncang Gempa M 6,5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27 menit yang lalu</t>
+          <t>43 menit yang lalu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137446/polda-metro-musnahkan-1-14-ton-sabu-hingga-ganja-senilai-rp-1-13-t</t>
+          <t>https://news.detik.com/berita/d-8138831/4-dinding-rumah-warga-di-sumenep-roboh-usai-diguncang-gempa-m-6-5</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -650,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kakorlantas Minta Jajaran Tingkatkan Program Polantas Menyapa, Layani-Bantu Masyarakat</t>
+          <t>4 Pernyataan Keluarga Diplomat Arya Daru Blak-blakan di Senayan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27 menit yang lalu</t>
+          <t>55 menit yang lalu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137443/kakorlantas-minta-jajaran-tingkatkan-program-polantas-menyapa-layani-bantu-masyarakat</t>
+          <t>https://news.detik.com/berita/d-8138818/4-pernyataan-keluarga-diplomat-arya-daru-blak-blakan-di-senayan</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -676,12 +676,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Festival Kue Bulan 2025 Tanggal Berapa? Ini Jadwal dan Serba-serbinya</t>
+          <t>Respons Kepala BGN soal Ortu Murid SDIT Al Izzah Serang Tolak Diberi MBG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>28 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137370/festival-kue-bulan-2025-tanggal-berapa-ini-jadwal-dan-serba-serbinya</t>
+          <t>https://news.detik.com/berita/d-8138798/respons-kepala-bgn-soal-ortu-murid-sdit-al-izzah-serang-tolak-diberi-mbg</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -702,12 +702,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27 Siswa SD di Palangka Raya Mual-Pusing Usai Santap Burger MBG</t>
+          <t>Musala Ponpes Roboh Tewaskan 3 Santri, Anggota DPR: Yang Lalai Harus Disanksi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>34 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137416/27-siswa-sd-di-palangka-raya-mual-pusing-usai-santap-burger-mbg</t>
+          <t>https://news.detik.com/berita/d-8138794/musala-ponpes-roboh-tewaskan-3-santri-anggota-dpr-yang-lalai-harus-disanksi</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -728,12 +728,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kakorlantas Tingkatkan Kehadiran Polantas di Jalan, Humanis Layani Masyarakat</t>
+          <t>Dendam Sering Dibully, Siswa SMP di Lampung Bunuh Teman Sekolah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>37 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137408/kakorlantas-tingkatkan-kehadiran-polantas-di-jalan-humanis-layani-masyarakat</t>
+          <t>https://news.detik.com/berita/d-8138791/dendam-sering-dibully-siswa-smp-di-lampung-bunuh-teman-sekolah</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -754,12 +754,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35+ Ucapan Hari Batik Nasional 2025, Bahasa Indonesia dan Inggris</t>
+          <t>Akhirnya Bocah Korban 'Ayah Juna' Kembali ke Keluarga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38 menit yang lalu</t>
+          <t>1 jam yang lalu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137165/35-ucapan-hari-batik-nasional-2025-bahasa-indonesia-dan-inggris</t>
+          <t>https://news.detik.com/berita/d-8138770/akhirnya-bocah-korban-ayah-juna-kembali-ke-keluarga</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -780,12 +780,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Perwakilan Buruh Diterima DPR Bahas RUU Ketenagakerjaan, Aksi Demo Batal</t>
+          <t>Komisi X DPR Minta Ada Aturan Cegah Smart TV Bantuan Pusat Dipakai Karaoke</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137397/perwakilan-buruh-diterima-dpr-bahas-ruu-ketenagakerjaan-aksi-demo-batal</t>
+          <t>https://news.detik.com/berita/d-8138766/komisi-x-dpr-minta-ada-aturan-cegah-smart-tv-bantuan-pusat-dipakai-karaoke</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -806,12 +806,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RI-Jepang Siapkan Beasiswa S2 buat Mahasiswa Program Transmigrasi Patriot</t>
+          <t>Hari Lanjut Usia Internasional 2025: Latar Belakang dan Tema</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>44 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137391/ri-jepang-siapkan-beasiswa-s2-buat-mahasiswa-program-transmigrasi-patriot</t>
+          <t>https://news.detik.com/berita/d-8135251/hari-lanjut-usia-internasional-2025-latar-belakang-dan-tema</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -832,12 +832,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polri dan AFP Sepakati Rencana Kerja Sama Tangani Penyelundupan Manusia</t>
+          <t>Drama Razman ke Luar Negeri Tanpa Izin tapi Hakim Tetap Baca Putusan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>48 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137385/polri-dan-afp-sepakati-rencana-kerja-sama-tangani-penyelundupan-manusia</t>
+          <t>https://news.detik.com/berita/d-8138746/drama-razman-ke-luar-negeri-tanpa-izin-tapi-hakim-tetap-baca-putusan</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -858,12 +858,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apakah Besok 1 Oktober 2025 Libur? Cek Lagi SKB 3 Menteri</t>
+          <t>Upacara Hari Kesaktian Pancasila, Apakah Ada Pengibaran Bendera?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>56 menit yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137373/apakah-besok-1-oktober-2025-libur-cek-lagi-skb-3-menteri</t>
+          <t>https://news.detik.com/berita/d-8138179/upacara-hari-kesaktian-pancasila-apakah-ada-pengibaran-bendera</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -884,12 +884,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hakim Baca Vonis Tanpa Kehadiran Razman, Pengacara Walk Out</t>
+          <t>Komisi VII DPR Harap RUU Kepariwisataan Bisa Disahkan Jadi UU Besok</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137368/hakim-baca-vonis-tanpa-kehadiran-razman-pengacara-walk-out</t>
+          <t>https://news.detik.com/berita/d-8138737/komisi-vii-dpr-harap-ruu-kepariwisataan-bisa-disahkan-jadi-uu-besok</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -910,12 +910,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pemprov Cek Merak Viral di Jaktim: Milik Bamsoet, Termasuk Dilindungi</t>
+          <t>1 Oktober 2025 Memperingati Hari Apa? Ini Daftar Hari Pentingnya</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137348/pemprov-cek-merak-viral-di-jaktim-milik-bamsoet-termasuk-dilindungi</t>
+          <t>https://news.detik.com/berita/d-8137161/1-oktober-2025-memperingati-hari-apa-ini-daftar-hari-pentingnya</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -936,12 +936,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Razman ke Luar Negeri Tanpa Izin, Hakim Tetap Bacakan Vonis</t>
+          <t>Geger Guru Pandeglang Asyik Karaoke Pakai Smart TV Bantuan Pusat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>2 jam yang lalu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137344/razman-ke-luar-negeri-tanpa-izin-hakim-tetap-bacakan-vonis</t>
+          <t>https://news.detik.com/berita/d-8138734/geger-guru-pandeglang-asyik-karaoke-pakai-smart-tv-bantuan-pusat</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -962,12 +962,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Prakiraan Cuaca 1 Oktober 2025 Saat Upacara Hari Kesaktian Pancasila</t>
+          <t>Satgas Damai Cartenz Bongkar Pemasok Senpi-Amunisi KKB, 2 Orang Diciduk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 jam yang lalu</t>
+          <t>3 jam yang lalu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8137369/prakiraan-cuaca-1-oktober-2025-saat-upacara-hari-kesaktian-pancasila</t>
+          <t>https://news.detik.com/berita/d-8138728/satgas-damai-cartenz-bongkar-pemasok-senpi-amunisi-kkb-2-orang-diciduk</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -993,7 +993,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4156,526 +4156,6 @@
         <v>0</v>
       </c>
       <c r="F143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Pemkab Pandeglang Tegur Guru yang Karaoke dan Joget saat Jam Pelajaran</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>13 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136763/pemkab-pandeglang-tegur-guru-yang-karaoke-dan-joget-saat-jam-pelajaran</t>
-        </is>
-      </c>
-      <c r="E144" t="b">
-        <v>0</v>
-      </c>
-      <c r="F144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Viral Pemotor Jadi Korban Hipnotis Rugi Rp 15 Juta di Bogor, Polisi Selidiki</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136754/viral-pemotor-jadi-korban-hipnotis-rugi-rp-15-juta-di-bogor-polisi-selidiki</t>
-        </is>
-      </c>
-      <c r="E145" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Periksa Agen TKA, KPK Dalami Rentang Waktu Pemerasan di Kemnaker</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136751/periksa-agen-tka-kpk-dalami-rentang-waktu-pemerasan-di-kemnaker</t>
-        </is>
-      </c>
-      <c r="E146" t="b">
-        <v>0</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Masukan Koalisi Masyarakat Sipil Saat Diskusi dengan Kapolri</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136749/masukan-koalisi-masyarakat-sipil-saat-diskusi-dengan-kapolri</t>
-        </is>
-      </c>
-      <c r="E147" t="b">
-        <v>0</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>1 Orang Dilaporkan Tewas Tertimpa Reruntuhan Musala Pondok Al Khoziny Sidoarjo</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136748/1-orang-dilaporkan-tewas-tertimpa-reruntuhan-musala-pondok-al-khoziny-sidoarjo</t>
-        </is>
-      </c>
-      <c r="E148" t="b">
-        <v>0</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>F-PDIP Terima Aduan Warga Sumut soal Konflik Lahan, Soroti Amdal Perusahaan</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136743/f-pdip-terima-aduan-warga-sumut-soal-konflik-lahan-soroti-amdal-perusahaan</t>
-        </is>
-      </c>
-      <c r="E149" t="b">
-        <v>0</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Luncurkan UHC Prioritas, Bobby Nasution Minta Tak Ada Faskes Tolak Pasien</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136741/luncurkan-uhc-prioritas-bobby-nasution-minta-tak-ada-faskes-tolak-pasien</t>
-        </is>
-      </c>
-      <c r="E150" t="b">
-        <v>0</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>MONDIACULT 2025, Menbud Tegaskan Peran RI bagi Arah Kebijakan Budaya Global</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>14 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136734/mondiacult-2025-menbud-tegaskan-peran-ri-bagi-arah-kebijakan-budaya-global</t>
-        </is>
-      </c>
-      <c r="E151" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Pagar 2 Rumah di Tangsel Diterabas Pajero gegara ABG Salah Injak Gas</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136732/pagar-2-rumah-di-tangsel-diterabas-pajero-gegara-abg-salah-injak-gas</t>
-        </is>
-      </c>
-      <c r="E152" t="b">
-        <v>0</v>
-      </c>
-      <c r="F152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Baleg DPR Batalkan Kewenangan BPIP Bisa Nilai Indeks Pancasila ke Lembaga</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136727/baleg-dpr-batalkan-kewenangan-bpip-bisa-nilai-indeks-pancasila-ke-lembaga</t>
-        </is>
-      </c>
-      <c r="E153" t="b">
-        <v>0</v>
-      </c>
-      <c r="F153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Putin Panggil 135 Ribu Pemuda Rusia untuk Wajib Militer</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136722/putin-panggil-135-ribu-pemuda-rusia-untuk-wajib-militer</t>
-        </is>
-      </c>
-      <c r="E154" t="b">
-        <v>0</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Usai Diguyur Hujan, 2 Ruas Jalan di Kembangan Jakbar Banjir Malam Ini</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136710/usai-diguyur-hujan-2-ruas-jalan-di-kembangan-jakbar-banjir-malam-ini</t>
-        </is>
-      </c>
-      <c r="E155" t="b">
-        <v>0</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Musala Ponpes di Sidoarjo Ambruk Diduga karena Fondasi Tak Kuat</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136703/musala-ponpes-di-sidoarjo-ambruk-diduga-karena-fondasi-tak-kuat</t>
-        </is>
-      </c>
-      <c r="E156" t="b">
-        <v>0</v>
-      </c>
-      <c r="F156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Menteri Ara Serah Terima Kunci Rumah Subsidi, Termasuk untuk Keluarga Affan</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>15 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136697/menteri-ara-serah-terima-kunci-rumah-subsidi-termasuk-untuk-keluarga-affan</t>
-        </is>
-      </c>
-      <c r="E157" t="b">
-        <v>0</v>
-      </c>
-      <c r="F157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Halaman RSUD Kabupaten Bekasi Sempat Banjir Usai Hujan Deras, Tinggi Air 15 Cm</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136685/halaman-rsud-kabupaten-bekasi-sempat-banjir-usai-hujan-deras-tinggi-air-15-cm</t>
-        </is>
-      </c>
-      <c r="E158" t="b">
-        <v>0</v>
-      </c>
-      <c r="F158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>DWP Kemensos Ajak Swasta Dukung Peringatan Hari Disabilitas Internasional</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136681/dwp-kemensos-ajak-swasta-dukung-peringatan-hari-disabilitas-internasional</t>
-        </is>
-      </c>
-      <c r="E159" t="b">
-        <v>0</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Pengasuh Ponpes Sidoarjo Ungkap Musala Ambruk Sedang dalam Proses Pengecoran</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136677/pengasuh-ponpes-sidoarjo-ungkap-musala-ambruk-sedang-dalam-proses-pengecoran</t>
-        </is>
-      </c>
-      <c r="E160" t="b">
-        <v>0</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Di Depan Kapolri, Amnesty International-KontraS Minta Bebaskan Aktivis</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136649/di-depan-kapolri-amnesty-international-kontras-minta-bebaskan-aktivis</t>
-        </is>
-      </c>
-      <c r="E161" t="b">
-        <v>0</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Naikkan IPM, Pemkot Semarang Usulkan Raperda Penyelenggaraan Pendidikan</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136648/naikkan-ipm-pemkot-semarang-usulkan-raperda-penyelenggaraan-pendidikan</t>
-        </is>
-      </c>
-      <c r="E162" t="b">
-        <v>0</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Hujan-hujanan, Prabowo Sapa Langsung Warga Pemilik Rumah Subsidi di Cileungsi</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>16 jam yang lalu</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Tidak Diketahui</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8136640/hujan-hujanan-prabowo-sapa-langsung-warga-pemilik-rumah-subsidi-di-cileungsi</t>
-        </is>
-      </c>
-      <c r="E163" t="b">
-        <v>0</v>
-      </c>
-      <c r="F163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
